--- a/www.uselessthingstobuy.com.xlsx
+++ b/www.uselessthingstobuy.com.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kburch1/Desktop/Kmeans-SEO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{D566C62C-C360-024C-8560-03A98B6D5FE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8160D03F-2CE5-1E43-B2D4-9DC38D351BA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1180" yWindow="1460" windowWidth="27240" windowHeight="15180"/>
+    <workbookView xWindow="1180" yWindow="1460" windowWidth="27240" windowHeight="15180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="https___www.uselessthingstobuy." sheetId="1" r:id="rId1"/>
@@ -1476,7 +1476,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -2311,11 +2311,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
-      <selection activeCell="C211" sqref="C211"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="A2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2350,1114 +2350,1114 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>284</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>130</v>
+        <v>83</v>
       </c>
       <c r="C2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1529</v>
       </c>
       <c r="E2">
-        <v>79</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0</v>
+        <v>87926</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>395</v>
       </c>
       <c r="G2" t="s">
-        <v>285</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>267</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>123</v>
+        <v>56</v>
       </c>
       <c r="C3">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1301</v>
       </c>
       <c r="E3">
-        <v>261</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0</v>
+        <v>21274</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>396</v>
       </c>
       <c r="G3" t="s">
-        <v>78</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>159</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="C4">
-        <v>234</v>
+        <v>142</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>1723</v>
       </c>
       <c r="E4">
-        <v>143</v>
+        <v>19865</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>461</v>
+        <v>394</v>
       </c>
       <c r="G4" t="s">
-        <v>160</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>219</v>
+        <v>11</v>
       </c>
       <c r="B5">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>611</v>
       </c>
       <c r="E5">
-        <v>69</v>
+        <v>12422</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>444</v>
+        <v>397</v>
       </c>
       <c r="G5" t="s">
-        <v>220</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>323</v>
+        <v>79</v>
       </c>
       <c r="B6">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E6">
-        <v>18</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0</v>
+        <v>10057</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>428</v>
       </c>
       <c r="G6" t="s">
-        <v>324</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>83</v>
+        <v>36</v>
       </c>
       <c r="C7">
-        <v>167</v>
+        <v>136</v>
       </c>
       <c r="D7">
-        <v>1529</v>
+        <v>216</v>
       </c>
       <c r="E7">
-        <v>87926</v>
+        <v>9293</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="G7" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>115</v>
+        <v>17</v>
       </c>
       <c r="B8">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="C8">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>158</v>
       </c>
       <c r="E8">
-        <v>1105</v>
+        <v>9161</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>431</v>
+        <v>400</v>
       </c>
       <c r="G8" t="s">
-        <v>116</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B9">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="C9">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="D9">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="E9">
-        <v>2927</v>
+        <v>7855</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="G9" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>337</v>
+        <v>19</v>
       </c>
       <c r="B10">
-        <v>81</v>
+        <v>38</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>121</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>148</v>
       </c>
       <c r="E10">
-        <v>11</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0</v>
+        <v>6150</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>401</v>
       </c>
       <c r="G10" t="s">
-        <v>338</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="C11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D11">
-        <v>6</v>
+        <v>178</v>
       </c>
       <c r="E11">
-        <v>818</v>
+        <v>6117</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>426</v>
+        <v>399</v>
       </c>
       <c r="G11" t="s">
-        <v>74</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>305</v>
+        <v>81</v>
       </c>
       <c r="B12">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="C12">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E12">
-        <v>26</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0</v>
+        <v>6093</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>429</v>
       </c>
       <c r="G12" t="s">
-        <v>306</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>378</v>
+        <v>37</v>
       </c>
       <c r="B13">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="C13">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
+        <v>5005</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="G13" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="D14">
-        <v>611</v>
+        <v>68</v>
       </c>
       <c r="E14">
-        <v>12422</v>
+        <v>4997</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="G14" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>335</v>
+        <v>47</v>
       </c>
       <c r="B15">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="C15">
-        <v>92</v>
+        <v>151</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E15">
-        <v>12</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0</v>
+        <v>4643</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="G15" t="s">
-        <v>336</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>371</v>
+        <v>51</v>
       </c>
       <c r="B16">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="C16">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>7</v>
+        <v>4313</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="G16" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>374</v>
+        <v>27</v>
       </c>
       <c r="B17">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="C17">
-        <v>92</v>
+        <v>153</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0</v>
+        <v>3896</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>405</v>
       </c>
       <c r="G17" t="s">
-        <v>373</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>133</v>
+        <v>167</v>
       </c>
       <c r="B18">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="C18">
-        <v>156</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E18">
-        <v>1109</v>
+        <v>3779</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>430</v>
+        <v>465</v>
       </c>
       <c r="G18" t="s">
-        <v>134</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>331</v>
+        <v>55</v>
       </c>
       <c r="B19">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="C19">
         <v>149</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E19">
-        <v>16</v>
-      </c>
-      <c r="F19" s="1">
-        <v>0</v>
+        <v>3760</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>419</v>
       </c>
       <c r="G19" t="s">
-        <v>332</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>334</v>
+        <v>23</v>
       </c>
       <c r="B20">
+        <v>59</v>
+      </c>
+      <c r="C20">
+        <v>110</v>
+      </c>
+      <c r="D20">
         <v>68</v>
       </c>
-      <c r="C20">
-        <v>149</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
       <c r="E20">
-        <v>13</v>
-      </c>
-      <c r="F20" s="1">
-        <v>0</v>
+        <v>3732</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>403</v>
       </c>
       <c r="G20" t="s">
-        <v>306</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>353</v>
+        <v>29</v>
       </c>
       <c r="B21">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="C21">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="E21">
-        <v>6</v>
-      </c>
-      <c r="F21" s="1">
-        <v>0</v>
+        <v>3525</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>406</v>
       </c>
       <c r="G21" t="s">
-        <v>354</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>375</v>
+        <v>31</v>
       </c>
       <c r="B22">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="C22">
-        <v>149</v>
+        <v>92</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22" s="1">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>1</v>
+        <v>3236</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="G22" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>386</v>
+        <v>49</v>
       </c>
       <c r="B23">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23" s="1">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>8</v>
+        <v>2994</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="G23" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="B24">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="C24">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="D24">
-        <v>1723</v>
+        <v>15</v>
       </c>
       <c r="E24">
-        <v>19865</v>
+        <v>2927</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>394</v>
+        <v>412</v>
       </c>
       <c r="G24" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>175</v>
+        <v>83</v>
       </c>
       <c r="B25">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="C25">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E25">
-        <v>789</v>
+        <v>2732</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>467</v>
+        <v>430</v>
       </c>
       <c r="G25" t="s">
-        <v>176</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>278</v>
+        <v>91</v>
       </c>
       <c r="B26">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="C26">
-        <v>188</v>
+        <v>141</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E26">
-        <v>111</v>
-      </c>
-      <c r="F26" s="1">
-        <v>0</v>
+        <v>2625</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>434</v>
       </c>
       <c r="G26" t="s">
-        <v>279</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>325</v>
+        <v>169</v>
       </c>
       <c r="B27">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="C27">
         <v>0</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27">
-        <v>18</v>
-      </c>
-      <c r="F27" s="1">
-        <v>0</v>
+        <v>2211</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>428</v>
       </c>
       <c r="G27" t="s">
-        <v>326</v>
+        <v>170</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>351</v>
+        <v>171</v>
       </c>
       <c r="B28">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28">
-        <v>7</v>
-      </c>
-      <c r="F28" s="1">
-        <v>0</v>
+        <v>2183</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>428</v>
       </c>
       <c r="G28" t="s">
-        <v>352</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>385</v>
+        <v>231</v>
       </c>
       <c r="B29">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>199</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>2154</v>
       </c>
       <c r="F29" s="1">
         <v>0</v>
       </c>
-      <c r="G29">
-        <v>8</v>
+      <c r="G29" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="B30">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="C30">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="D30">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="E30">
-        <v>7855</v>
+        <v>1823</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>404</v>
+        <v>431</v>
       </c>
       <c r="G30" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>191</v>
+        <v>233</v>
       </c>
       <c r="B31">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31">
-        <v>326</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>418</v>
+        <v>1815</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0</v>
       </c>
       <c r="G31" t="s">
-        <v>192</v>
+        <v>234</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>391</v>
+        <v>131</v>
       </c>
       <c r="B32">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="C32">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E32">
-        <v>1</v>
-      </c>
-      <c r="F32" s="1">
-        <v>0</v>
-      </c>
-      <c r="G32">
+        <v>1670</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="G32" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="B33">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="C33">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="D33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E33">
-        <v>680</v>
+        <v>1600</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="G33" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>259</v>
+        <v>41</v>
       </c>
       <c r="B34">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C34">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E34">
-        <v>327</v>
-      </c>
-      <c r="F34" s="1">
-        <v>0</v>
+        <v>1518</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>406</v>
       </c>
       <c r="G34" t="s">
-        <v>260</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>153</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="C35">
-        <v>146</v>
+        <v>0</v>
       </c>
       <c r="D35">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="E35">
-        <v>229</v>
+        <v>1482</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>459</v>
+        <v>408</v>
       </c>
       <c r="G35" t="s">
-        <v>154</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>251</v>
+        <v>69</v>
       </c>
       <c r="B36">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="C36">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E36">
-        <v>451</v>
-      </c>
-      <c r="F36" s="1">
-        <v>0</v>
+        <v>1453</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>425</v>
       </c>
       <c r="G36" t="s">
-        <v>252</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="B37">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="C37">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="D37">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="E37">
-        <v>5005</v>
+        <v>1450</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>410</v>
+        <v>425</v>
       </c>
       <c r="G37" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="C38">
-        <v>145</v>
+        <v>0</v>
       </c>
       <c r="D38">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E38">
-        <v>10057</v>
+        <v>1297</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>428</v>
+        <v>411</v>
       </c>
       <c r="G38" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>187</v>
+        <v>95</v>
       </c>
       <c r="B39">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="C39">
-        <v>118</v>
+        <v>0</v>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E39">
-        <v>453</v>
+        <v>1244</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>470</v>
+        <v>436</v>
       </c>
       <c r="G39" t="s">
-        <v>188</v>
+        <v>96</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>363</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C40">
-        <v>87</v>
+        <v>147</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E40">
-        <v>4</v>
-      </c>
-      <c r="F40" s="1">
-        <v>0</v>
+        <v>1183</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>413</v>
       </c>
       <c r="G40" t="s">
-        <v>364</v>
+        <v>46</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>379</v>
+        <v>235</v>
       </c>
       <c r="B41">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="C41">
-        <v>148</v>
+        <v>0</v>
       </c>
       <c r="D41">
         <v>0</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>1135</v>
       </c>
       <c r="F41" s="1">
         <v>0</v>
       </c>
-      <c r="G41">
-        <v>2</v>
+      <c r="G41" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>233</v>
+        <v>57</v>
       </c>
       <c r="B42">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C42">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E42">
-        <v>1815</v>
-      </c>
-      <c r="F42" s="1">
-        <v>0</v>
+        <v>1119</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>420</v>
       </c>
       <c r="G42" t="s">
-        <v>234</v>
+        <v>58</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>105</v>
+        <v>59</v>
       </c>
       <c r="B43">
+        <v>47</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>7</v>
+      </c>
+      <c r="E43">
+        <v>1115</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="G43" t="s">
         <v>60</v>
-      </c>
-      <c r="C43">
-        <v>161</v>
-      </c>
-      <c r="D43">
-        <v>4</v>
-      </c>
-      <c r="E43">
-        <v>667</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="G43" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>319</v>
+        <v>133</v>
       </c>
       <c r="B44">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E44">
-        <v>19</v>
-      </c>
-      <c r="F44" s="1">
-        <v>0</v>
+        <v>1109</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>430</v>
       </c>
       <c r="G44" t="s">
-        <v>320</v>
+        <v>134</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>339</v>
+        <v>115</v>
       </c>
       <c r="B45">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E45">
-        <v>10</v>
-      </c>
-      <c r="F45" s="1">
-        <v>0</v>
+        <v>1105</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>431</v>
       </c>
       <c r="G45" t="s">
-        <v>340</v>
+        <v>116</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>355</v>
+        <v>97</v>
       </c>
       <c r="B46">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C46">
-        <v>199</v>
+        <v>148</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E46">
-        <v>6</v>
-      </c>
-      <c r="F46" s="1">
-        <v>0</v>
-      </c>
-      <c r="G46">
-        <v>37</v>
+        <v>1038</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="G46" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>365</v>
+        <v>173</v>
       </c>
       <c r="B47">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C47">
         <v>0</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E47">
-        <v>4</v>
-      </c>
-      <c r="F47" s="1">
-        <v>0</v>
-      </c>
-      <c r="G47">
-        <v>27</v>
+        <v>1034</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="G47" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>366</v>
+        <v>237</v>
       </c>
       <c r="B48">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="C48">
-        <v>199</v>
+        <v>0</v>
       </c>
       <c r="D48">
         <v>0</v>
       </c>
       <c r="E48">
-        <v>4</v>
+        <v>956</v>
       </c>
       <c r="F48" s="1">
         <v>0</v>
       </c>
       <c r="G48" t="s">
-        <v>367</v>
+        <v>238</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>370</v>
+        <v>239</v>
       </c>
       <c r="B49">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="C49">
-        <v>199</v>
+        <v>156</v>
       </c>
       <c r="D49">
         <v>0</v>
       </c>
       <c r="E49">
-        <v>2</v>
+        <v>939</v>
       </c>
       <c r="F49" s="1">
         <v>0</v>
       </c>
-      <c r="G49">
-        <v>7</v>
+      <c r="G49" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>380</v>
+        <v>241</v>
       </c>
       <c r="B50">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -3466,404 +3466,404 @@
         <v>0</v>
       </c>
       <c r="E50">
-        <v>1</v>
+        <v>925</v>
       </c>
       <c r="F50" s="1">
         <v>0</v>
       </c>
-      <c r="G50">
-        <v>3</v>
+      <c r="G50" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>387</v>
+        <v>73</v>
       </c>
       <c r="B51">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="C51">
-        <v>199</v>
+        <v>142</v>
       </c>
       <c r="D51">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E51">
-        <v>1</v>
-      </c>
-      <c r="F51" s="1">
-        <v>0</v>
-      </c>
-      <c r="G51">
-        <v>9</v>
+        <v>818</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="G51" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>23</v>
+        <v>243</v>
       </c>
       <c r="B52">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="C52">
-        <v>110</v>
+        <v>142</v>
       </c>
       <c r="D52">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="E52">
-        <v>3732</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>403</v>
+        <v>792</v>
+      </c>
+      <c r="F52" s="1">
+        <v>0</v>
       </c>
       <c r="G52" t="s">
-        <v>24</v>
+        <v>244</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>165</v>
+        <v>61</v>
       </c>
       <c r="B53">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C53">
-        <v>92</v>
+        <v>146</v>
       </c>
       <c r="D53">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E53">
-        <v>29</v>
+        <v>791</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>464</v>
+        <v>421</v>
       </c>
       <c r="G53" t="s">
-        <v>166</v>
+        <v>62</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>298</v>
+        <v>175</v>
       </c>
       <c r="B54">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C54">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E54">
-        <v>39</v>
-      </c>
-      <c r="F54" s="1">
-        <v>0</v>
+        <v>789</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>467</v>
       </c>
       <c r="G54" t="s">
-        <v>299</v>
+        <v>176</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>347</v>
+        <v>177</v>
       </c>
       <c r="B55">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="C55">
-        <v>124</v>
+        <v>0</v>
       </c>
       <c r="D55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E55">
-        <v>8</v>
-      </c>
-      <c r="F55" s="1">
-        <v>0</v>
+        <v>788</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>467</v>
       </c>
       <c r="G55" t="s">
-        <v>348</v>
+        <v>178</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>382</v>
+        <v>99</v>
       </c>
       <c r="B56">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>142</v>
       </c>
       <c r="D56">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E56">
-        <v>1</v>
-      </c>
-      <c r="F56" s="1">
-        <v>0</v>
-      </c>
-      <c r="G56">
-        <v>4</v>
+        <v>748</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="G56" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="B57">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C57">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D57">
         <v>4</v>
       </c>
       <c r="E57">
-        <v>275</v>
+        <v>722</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="G57" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>139</v>
+        <v>103</v>
       </c>
       <c r="B58">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C58">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D58">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E58">
-        <v>574</v>
+        <v>720</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>455</v>
+        <v>440</v>
       </c>
       <c r="G58" t="s">
-        <v>140</v>
+        <v>104</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>215</v>
+        <v>75</v>
       </c>
       <c r="B59">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="C59">
-        <v>101</v>
+        <v>141</v>
       </c>
       <c r="D59">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E59">
-        <v>120</v>
+        <v>716</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>407</v>
+        <v>427</v>
       </c>
       <c r="G59" t="s">
-        <v>216</v>
+        <v>76</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>307</v>
+        <v>135</v>
       </c>
       <c r="B60">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C60">
-        <v>101</v>
+        <v>142</v>
       </c>
       <c r="D60">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E60">
-        <v>25</v>
-      </c>
-      <c r="F60" s="1">
-        <v>0</v>
+        <v>713</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>454</v>
       </c>
       <c r="G60" t="s">
-        <v>308</v>
+        <v>136</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>359</v>
+        <v>87</v>
       </c>
       <c r="B61">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C61">
-        <v>101</v>
+        <v>155</v>
       </c>
       <c r="D61">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E61">
-        <v>5</v>
-      </c>
-      <c r="F61" s="1">
-        <v>0</v>
-      </c>
-      <c r="G61">
-        <v>46</v>
+        <v>708</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="G61" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>368</v>
+        <v>245</v>
       </c>
       <c r="B62">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C62">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="D62">
         <v>0</v>
       </c>
       <c r="E62">
-        <v>4</v>
+        <v>691</v>
       </c>
       <c r="F62" s="1">
         <v>0</v>
       </c>
-      <c r="G62">
-        <v>75</v>
+      <c r="G62" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>381</v>
+        <v>247</v>
       </c>
       <c r="B63">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="C63">
-        <v>101</v>
+        <v>143</v>
       </c>
       <c r="D63">
         <v>0</v>
       </c>
       <c r="E63">
-        <v>1</v>
+        <v>681</v>
       </c>
       <c r="F63" s="1">
         <v>0</v>
       </c>
-      <c r="G63">
-        <v>3</v>
+      <c r="G63" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>390</v>
+        <v>117</v>
       </c>
       <c r="B64">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C64">
-        <v>101</v>
+        <v>131</v>
       </c>
       <c r="D64">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E64">
-        <v>1</v>
-      </c>
-      <c r="F64" s="1">
-        <v>0</v>
-      </c>
-      <c r="G64">
-        <v>25</v>
+        <v>680</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="G64" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="B65">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="C65">
         <v>132</v>
       </c>
       <c r="D65">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E65">
-        <v>256</v>
+        <v>677</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="G65" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>125</v>
+        <v>35</v>
       </c>
       <c r="B66">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="C66">
-        <v>146</v>
+        <v>81</v>
       </c>
       <c r="D66">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="E66">
-        <v>240</v>
+        <v>668</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>450</v>
+        <v>409</v>
       </c>
       <c r="G66" t="s">
-        <v>126</v>
+        <v>36</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="B67">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C67">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="D67">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E67">
-        <v>713</v>
+        <v>667</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="G67" t="s">
-        <v>136</v>
+        <v>106</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
@@ -3891,858 +3891,858 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>149</v>
+        <v>77</v>
       </c>
       <c r="B69">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C69">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D69">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E69">
-        <v>268</v>
+        <v>595</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>457</v>
+        <v>413</v>
       </c>
       <c r="G69" t="s">
-        <v>150</v>
+        <v>78</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>211</v>
+        <v>119</v>
       </c>
       <c r="B70">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C70">
-        <v>135</v>
+        <v>0</v>
       </c>
       <c r="D70">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E70">
-        <v>131</v>
+        <v>594</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>476</v>
+        <v>412</v>
       </c>
       <c r="G70" t="s">
-        <v>212</v>
+        <v>120</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>241</v>
+        <v>179</v>
       </c>
       <c r="B71">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C71">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="D71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E71">
-        <v>925</v>
-      </c>
-      <c r="F71" s="1">
-        <v>0</v>
+        <v>588</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>468</v>
       </c>
       <c r="G71" t="s">
-        <v>242</v>
+        <v>180</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>329</v>
+        <v>139</v>
       </c>
       <c r="B72">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C72">
-        <v>0</v>
+        <v>133</v>
       </c>
       <c r="D72">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E72">
-        <v>16</v>
-      </c>
-      <c r="F72" s="1">
-        <v>0</v>
+        <v>574</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>455</v>
       </c>
       <c r="G72" t="s">
-        <v>330</v>
+        <v>140</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>376</v>
+        <v>141</v>
       </c>
       <c r="B73">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C73">
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="D73">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E73">
-        <v>1</v>
-      </c>
-      <c r="F73" s="1">
-        <v>0</v>
-      </c>
-      <c r="G73">
-        <v>1</v>
+        <v>546</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="G73" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>377</v>
+        <v>143</v>
       </c>
       <c r="B74">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="C74">
         <v>0</v>
       </c>
       <c r="D74">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E74">
-        <v>1</v>
-      </c>
-      <c r="F74" s="1">
-        <v>0</v>
-      </c>
-      <c r="G74">
-        <v>1</v>
+        <v>537</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="G74" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>383</v>
+        <v>121</v>
       </c>
       <c r="B75">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="C75">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="D75">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E75">
-        <v>1</v>
-      </c>
-      <c r="F75" s="1">
-        <v>0</v>
-      </c>
-      <c r="G75">
-        <v>5</v>
+        <v>523</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="G75" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>9</v>
+        <v>181</v>
       </c>
       <c r="B76">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C76">
-        <v>130</v>
+        <v>152</v>
       </c>
       <c r="D76">
-        <v>1301</v>
+        <v>1</v>
       </c>
       <c r="E76">
-        <v>21274</v>
+        <v>513</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>396</v>
+        <v>419</v>
       </c>
       <c r="G76" t="s">
-        <v>10</v>
+        <v>182</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>45</v>
+        <v>107</v>
       </c>
       <c r="B77">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="C77">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="D77">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E77">
-        <v>1183</v>
+        <v>495</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>413</v>
+        <v>442</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>108</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>57</v>
+        <v>183</v>
       </c>
       <c r="B78">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C78">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="D78">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E78">
-        <v>1119</v>
+        <v>488</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>420</v>
+        <v>469</v>
       </c>
       <c r="G78" t="s">
-        <v>58</v>
+        <v>184</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>61</v>
+        <v>185</v>
       </c>
       <c r="B79">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C79">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D79">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E79">
-        <v>791</v>
+        <v>486</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="G79" t="s">
-        <v>62</v>
+        <v>186</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="B80">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C80">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D80">
         <v>0</v>
       </c>
       <c r="E80">
-        <v>301</v>
+        <v>460</v>
       </c>
       <c r="F80" s="1">
         <v>0</v>
       </c>
       <c r="G80" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>97</v>
+        <v>187</v>
       </c>
       <c r="B81">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C81">
-        <v>148</v>
+        <v>118</v>
       </c>
       <c r="D81">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E81">
-        <v>1038</v>
+        <v>453</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>437</v>
+        <v>470</v>
       </c>
       <c r="G81" t="s">
-        <v>98</v>
+        <v>188</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>147</v>
+        <v>251</v>
       </c>
       <c r="B82">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C82">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="D82">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E82">
-        <v>319</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>420</v>
+        <v>451</v>
+      </c>
+      <c r="F82" s="1">
+        <v>0</v>
       </c>
       <c r="G82" t="s">
-        <v>148</v>
+        <v>252</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>179</v>
+        <v>253</v>
       </c>
       <c r="B83">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C83">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E83">
-        <v>588</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>468</v>
+        <v>431</v>
+      </c>
+      <c r="F83" s="1">
+        <v>0</v>
       </c>
       <c r="G83" t="s">
-        <v>180</v>
+        <v>254</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>288</v>
+        <v>255</v>
       </c>
       <c r="B84">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="C84">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="D84">
         <v>0</v>
       </c>
       <c r="E84">
-        <v>67</v>
+        <v>415</v>
       </c>
       <c r="F84" s="1">
         <v>0</v>
       </c>
       <c r="G84" t="s">
-        <v>289</v>
+        <v>256</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>315</v>
+        <v>145</v>
       </c>
       <c r="B85">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C85">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="D85">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E85">
-        <v>21</v>
-      </c>
-      <c r="F85" s="1">
-        <v>0</v>
+        <v>385</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>447</v>
       </c>
       <c r="G85" t="s">
-        <v>316</v>
+        <v>146</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>49</v>
+        <v>123</v>
       </c>
       <c r="B86">
         <v>54</v>
       </c>
       <c r="C86">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D86">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E86">
-        <v>2994</v>
+        <v>384</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>415</v>
+        <v>449</v>
       </c>
       <c r="G86" t="s">
-        <v>50</v>
+        <v>124</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="B87">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="C87">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="D87">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E87">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>449</v>
+        <v>433</v>
       </c>
       <c r="G87" t="s">
-        <v>124</v>
+        <v>90</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>369</v>
+        <v>109</v>
       </c>
       <c r="B88">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C88">
         <v>139</v>
       </c>
       <c r="D88">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E88">
-        <v>2</v>
-      </c>
-      <c r="F88" s="1">
-        <v>0</v>
-      </c>
-      <c r="G88">
-        <v>3</v>
+        <v>365</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="G88" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>389</v>
+        <v>257</v>
       </c>
       <c r="B89">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C89">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D89">
         <v>0</v>
       </c>
       <c r="E89">
-        <v>1</v>
+        <v>350</v>
       </c>
       <c r="F89" s="1">
         <v>0</v>
       </c>
-      <c r="G89">
-        <v>12</v>
+      <c r="G89" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="B90">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C90">
-        <v>124</v>
+        <v>153</v>
       </c>
       <c r="D90">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E90">
-        <v>1518</v>
+        <v>344</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>406</v>
+        <v>422</v>
       </c>
       <c r="G90" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>55</v>
+        <v>189</v>
       </c>
       <c r="B91">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C91">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="D91">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E91">
-        <v>3760</v>
+        <v>338</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>419</v>
+        <v>471</v>
       </c>
       <c r="G91" t="s">
-        <v>56</v>
+        <v>190</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>81</v>
+        <v>259</v>
       </c>
       <c r="B92">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="C92">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="D92">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E92">
-        <v>6093</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>429</v>
+        <v>327</v>
+      </c>
+      <c r="F92" s="1">
+        <v>0</v>
       </c>
       <c r="G92" t="s">
-        <v>82</v>
+        <v>260</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>85</v>
+        <v>191</v>
       </c>
       <c r="B93">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="C93">
-        <v>137</v>
+        <v>0</v>
       </c>
       <c r="D93">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E93">
-        <v>1823</v>
+        <v>326</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>431</v>
+        <v>418</v>
       </c>
       <c r="G93" t="s">
-        <v>86</v>
+        <v>192</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>101</v>
+        <v>261</v>
       </c>
       <c r="B94">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C94">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="D94">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E94">
-        <v>722</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>439</v>
+        <v>320</v>
+      </c>
+      <c r="F94" s="1">
+        <v>0</v>
       </c>
       <c r="G94" t="s">
-        <v>102</v>
+        <v>262</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>109</v>
+        <v>147</v>
       </c>
       <c r="B95">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C95">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="D95">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E95">
-        <v>365</v>
+        <v>319</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>443</v>
+        <v>420</v>
       </c>
       <c r="G95" t="s">
-        <v>110</v>
+        <v>148</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>129</v>
+        <v>263</v>
       </c>
       <c r="B96">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="D96">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E96">
-        <v>122</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>452</v>
+        <v>301</v>
+      </c>
+      <c r="F96" s="1">
+        <v>0</v>
       </c>
       <c r="G96" t="s">
-        <v>130</v>
+        <v>264</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>181</v>
+        <v>265</v>
       </c>
       <c r="B97">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C97">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E97">
-        <v>513</v>
-      </c>
-      <c r="F97" s="1" t="s">
-        <v>419</v>
+        <v>301</v>
+      </c>
+      <c r="F97" s="1">
+        <v>0</v>
       </c>
       <c r="G97" t="s">
-        <v>182</v>
+        <v>266</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>195</v>
+        <v>111</v>
       </c>
       <c r="B98">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C98">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D98">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E98">
-        <v>224</v>
+        <v>275</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>473</v>
+        <v>444</v>
       </c>
       <c r="G98" t="s">
-        <v>196</v>
+        <v>112</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>227</v>
+        <v>149</v>
       </c>
       <c r="B99">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="D99">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E99">
-        <v>8</v>
+        <v>268</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>362</v>
+        <v>457</v>
       </c>
       <c r="G99" t="s">
-        <v>228</v>
+        <v>150</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>268</v>
+        <v>151</v>
       </c>
       <c r="B100">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C100">
-        <v>149</v>
+        <v>122</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E100">
-        <v>256</v>
-      </c>
-      <c r="F100" s="1">
-        <v>0</v>
+        <v>261</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>458</v>
       </c>
       <c r="G100" t="s">
-        <v>269</v>
+        <v>152</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>87</v>
+        <v>267</v>
       </c>
       <c r="B101">
-        <v>52</v>
+        <v>123</v>
       </c>
       <c r="C101">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="D101">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E101">
-        <v>708</v>
-      </c>
-      <c r="F101" s="1" t="s">
-        <v>432</v>
+        <v>261</v>
+      </c>
+      <c r="F101" s="1">
+        <v>0</v>
       </c>
       <c r="G101" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>157</v>
+        <v>65</v>
       </c>
       <c r="B102">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C102">
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="D102">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E102">
-        <v>200</v>
-      </c>
-      <c r="F102" s="1">
-        <v>1</v>
+        <v>256</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>423</v>
       </c>
       <c r="G102" t="s">
-        <v>158</v>
+        <v>66</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B103">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C103">
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="D103">
         <v>0</v>
       </c>
       <c r="E103">
-        <v>234</v>
+        <v>256</v>
       </c>
       <c r="F103" s="1">
         <v>0</v>
       </c>
       <c r="G103" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>286</v>
+        <v>125</v>
       </c>
       <c r="B104">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C104">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E104">
-        <v>73</v>
-      </c>
-      <c r="F104" s="1">
-        <v>0</v>
+        <v>240</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>450</v>
       </c>
       <c r="G104" t="s">
-        <v>287</v>
+        <v>126</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>292</v>
+        <v>193</v>
       </c>
       <c r="B105">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="C105">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E105">
-        <v>48</v>
-      </c>
-      <c r="F105" s="1">
-        <v>0</v>
+        <v>240</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>472</v>
       </c>
       <c r="G105" t="s">
-        <v>293</v>
+        <v>194</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>302</v>
+        <v>270</v>
       </c>
       <c r="B106">
         <v>52</v>
@@ -4754,1401 +4754,1401 @@
         <v>0</v>
       </c>
       <c r="E106">
-        <v>31</v>
+        <v>234</v>
       </c>
       <c r="F106" s="1">
         <v>0</v>
       </c>
       <c r="G106" t="s">
-        <v>303</v>
+        <v>271</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>317</v>
+        <v>153</v>
       </c>
       <c r="B107">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="C107">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D107">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E107">
-        <v>20</v>
-      </c>
-      <c r="F107" s="1">
-        <v>0</v>
+        <v>229</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>459</v>
       </c>
       <c r="G107" t="s">
-        <v>318</v>
+        <v>154</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>343</v>
+        <v>195</v>
       </c>
       <c r="B108">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C108">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="D108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E108">
-        <v>8</v>
-      </c>
-      <c r="F108" s="1">
-        <v>0</v>
+        <v>224</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>473</v>
       </c>
       <c r="G108" t="s">
-        <v>344</v>
+        <v>196</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>51</v>
+        <v>155</v>
       </c>
       <c r="B109">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C109">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="D109">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E109">
-        <v>4313</v>
+        <v>214</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>416</v>
+        <v>460</v>
       </c>
       <c r="G109" t="s">
-        <v>52</v>
+        <v>156</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>93</v>
+        <v>157</v>
       </c>
       <c r="B110">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C110">
-        <v>143</v>
+        <v>0</v>
       </c>
       <c r="D110">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E110">
-        <v>1600</v>
-      </c>
-      <c r="F110" s="1" t="s">
-        <v>435</v>
+        <v>200</v>
+      </c>
+      <c r="F110" s="1">
+        <v>1</v>
       </c>
       <c r="G110" t="s">
-        <v>94</v>
+        <v>158</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>103</v>
+        <v>197</v>
       </c>
       <c r="B111">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C111">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D111">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E111">
-        <v>720</v>
+        <v>198</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>440</v>
+        <v>412</v>
       </c>
       <c r="G111" t="s">
-        <v>104</v>
+        <v>198</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>272</v>
+        <v>127</v>
       </c>
       <c r="B112">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C112">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="D112">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E112">
-        <v>162</v>
-      </c>
-      <c r="F112" s="1">
-        <v>0</v>
+        <v>190</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>451</v>
       </c>
       <c r="G112" t="s">
-        <v>273</v>
+        <v>128</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>296</v>
+        <v>199</v>
       </c>
       <c r="B113">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C113">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="D113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E113">
-        <v>39</v>
-      </c>
-      <c r="F113" s="1">
-        <v>0</v>
+        <v>169</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>474</v>
       </c>
       <c r="G113" t="s">
-        <v>297</v>
+        <v>200</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>300</v>
+        <v>201</v>
       </c>
       <c r="B114">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C114">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="D114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E114">
-        <v>37</v>
-      </c>
-      <c r="F114" s="1">
-        <v>0</v>
+        <v>165</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>475</v>
       </c>
       <c r="G114" t="s">
-        <v>301</v>
+        <v>202</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>311</v>
+        <v>272</v>
       </c>
       <c r="B115">
         <v>51</v>
       </c>
       <c r="C115">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="D115">
         <v>0</v>
       </c>
       <c r="E115">
-        <v>22</v>
+        <v>162</v>
       </c>
       <c r="F115" s="1">
         <v>0</v>
       </c>
       <c r="G115" t="s">
-        <v>312</v>
+        <v>273</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>333</v>
+        <v>203</v>
       </c>
       <c r="B116">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C116">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E116">
-        <v>13</v>
-      </c>
-      <c r="F116" s="1">
-        <v>0</v>
+        <v>145</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>404</v>
       </c>
       <c r="G116" t="s">
-        <v>234</v>
+        <v>204</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>91</v>
+        <v>274</v>
       </c>
       <c r="B117">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C117">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="D117">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E117">
-        <v>2625</v>
-      </c>
-      <c r="F117" s="1" t="s">
-        <v>434</v>
+        <v>145</v>
+      </c>
+      <c r="F117" s="1">
+        <v>0</v>
       </c>
       <c r="G117" t="s">
-        <v>92</v>
+        <v>275</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>99</v>
+        <v>159</v>
       </c>
       <c r="B118">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="C118">
-        <v>142</v>
+        <v>234</v>
       </c>
       <c r="D118">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E118">
-        <v>748</v>
+        <v>143</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>438</v>
+        <v>461</v>
       </c>
       <c r="G118" t="s">
-        <v>100</v>
+        <v>160</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>113</v>
+        <v>205</v>
       </c>
       <c r="B119">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C119">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="D119">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E119">
-        <v>37</v>
+        <v>141</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>445</v>
+        <v>432</v>
       </c>
       <c r="G119" t="s">
-        <v>114</v>
+        <v>206</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>155</v>
+        <v>207</v>
       </c>
       <c r="B120">
         <v>50</v>
       </c>
       <c r="C120">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D120">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E120">
-        <v>214</v>
+        <v>134</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="G120" t="s">
-        <v>156</v>
+        <v>208</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B121">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C121">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="D121">
         <v>1</v>
       </c>
       <c r="E121">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F121" s="1" t="s">
         <v>457</v>
       </c>
       <c r="G121" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>245</v>
+        <v>211</v>
       </c>
       <c r="B122">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C122">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="D122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E122">
-        <v>691</v>
-      </c>
-      <c r="F122" s="1">
-        <v>0</v>
+        <v>131</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>476</v>
       </c>
       <c r="G122" t="s">
-        <v>246</v>
+        <v>212</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>31</v>
+        <v>213</v>
       </c>
       <c r="B123">
         <v>49</v>
       </c>
       <c r="C123">
-        <v>92</v>
+        <v>129</v>
       </c>
       <c r="D123">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="E123">
-        <v>3236</v>
+        <v>127</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>407</v>
+        <v>477</v>
       </c>
       <c r="G123" t="s">
-        <v>32</v>
+        <v>214</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>213</v>
+        <v>161</v>
       </c>
       <c r="B124">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C124">
         <v>129</v>
       </c>
       <c r="D124">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E124">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="G124" t="s">
-        <v>214</v>
+        <v>162</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>261</v>
+        <v>129</v>
       </c>
       <c r="B125">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C125">
-        <v>137</v>
+        <v>0</v>
       </c>
       <c r="D125">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E125">
-        <v>320</v>
-      </c>
-      <c r="F125" s="1">
-        <v>0</v>
+        <v>122</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>452</v>
       </c>
       <c r="G125" t="s">
-        <v>262</v>
+        <v>130</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>274</v>
+        <v>215</v>
       </c>
       <c r="B126">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C126">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="D126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E126">
-        <v>145</v>
-      </c>
-      <c r="F126" s="1">
-        <v>0</v>
+        <v>120</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>407</v>
       </c>
       <c r="G126" t="s">
-        <v>275</v>
+        <v>216</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>294</v>
+        <v>276</v>
       </c>
       <c r="B127">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C127">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D127">
         <v>0</v>
       </c>
       <c r="E127">
-        <v>47</v>
+        <v>118</v>
       </c>
       <c r="F127" s="1">
         <v>0</v>
       </c>
       <c r="G127" t="s">
-        <v>295</v>
+        <v>277</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>29</v>
+        <v>278</v>
       </c>
       <c r="B128">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="C128">
-        <v>135</v>
+        <v>188</v>
       </c>
       <c r="D128">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="E128">
-        <v>3525</v>
-      </c>
-      <c r="F128" s="1" t="s">
-        <v>406</v>
+        <v>111</v>
+      </c>
+      <c r="F128" s="1">
+        <v>0</v>
       </c>
       <c r="G128" t="s">
-        <v>30</v>
+        <v>279</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>71</v>
+        <v>217</v>
       </c>
       <c r="B129">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C129">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="D129">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E129">
-        <v>1450</v>
+        <v>103</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>425</v>
+        <v>478</v>
       </c>
       <c r="G129" t="s">
-        <v>72</v>
+        <v>218</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B130">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C130">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="D130">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E130">
-        <v>595</v>
+        <v>101</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>413</v>
+        <v>424</v>
       </c>
       <c r="G130" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>119</v>
+        <v>280</v>
       </c>
       <c r="B131">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C131">
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="D131">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E131">
-        <v>594</v>
-      </c>
-      <c r="F131" s="1" t="s">
-        <v>412</v>
+        <v>99</v>
+      </c>
+      <c r="F131" s="1">
+        <v>0</v>
       </c>
       <c r="G131" t="s">
-        <v>120</v>
+        <v>281</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="B132">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C132">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="D132">
         <v>2</v>
       </c>
       <c r="E132">
-        <v>261</v>
+        <v>95</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="G132" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>253</v>
+        <v>284</v>
       </c>
       <c r="B133">
-        <v>48</v>
+        <v>130</v>
       </c>
       <c r="C133">
-        <v>130</v>
+        <v>168</v>
       </c>
       <c r="D133">
         <v>0</v>
       </c>
       <c r="E133">
-        <v>431</v>
+        <v>79</v>
       </c>
       <c r="F133" s="1">
         <v>0</v>
       </c>
       <c r="G133" t="s">
-        <v>254</v>
+        <v>285</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>372</v>
+        <v>282</v>
       </c>
       <c r="B134">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C134">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="D134">
         <v>0</v>
       </c>
       <c r="E134">
-        <v>2</v>
+        <v>79</v>
       </c>
       <c r="F134" s="1">
         <v>0</v>
       </c>
       <c r="G134" t="s">
-        <v>373</v>
+        <v>283</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>59</v>
+        <v>286</v>
       </c>
       <c r="B135">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C135">
-        <v>0</v>
+        <v>166</v>
       </c>
       <c r="D135">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E135">
-        <v>1115</v>
-      </c>
-      <c r="F135" s="1" t="s">
-        <v>420</v>
+        <v>73</v>
+      </c>
+      <c r="F135" s="1">
+        <v>0</v>
       </c>
       <c r="G135" t="s">
-        <v>60</v>
+        <v>287</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>141</v>
+        <v>219</v>
       </c>
       <c r="B136">
-        <v>47</v>
+        <v>90</v>
       </c>
       <c r="C136">
-        <v>156</v>
+        <v>0</v>
       </c>
       <c r="D136">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E136">
-        <v>546</v>
+        <v>69</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="G136" t="s">
-        <v>142</v>
+        <v>220</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>145</v>
+        <v>288</v>
       </c>
       <c r="B137">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C137">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="D137">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E137">
-        <v>385</v>
-      </c>
-      <c r="F137" s="1" t="s">
-        <v>447</v>
+        <v>67</v>
+      </c>
+      <c r="F137" s="1">
+        <v>0</v>
       </c>
       <c r="G137" t="s">
-        <v>146</v>
+        <v>289</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>161</v>
+        <v>290</v>
       </c>
       <c r="B138">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C138">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="D138">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E138">
-        <v>126</v>
-      </c>
-      <c r="F138" s="1" t="s">
-        <v>462</v>
+        <v>56</v>
+      </c>
+      <c r="F138" s="1">
+        <v>0</v>
       </c>
       <c r="G138" t="s">
-        <v>162</v>
+        <v>291</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>185</v>
+        <v>292</v>
       </c>
       <c r="B139">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C139">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E139">
-        <v>486</v>
-      </c>
-      <c r="F139" s="1" t="s">
-        <v>416</v>
+        <v>48</v>
+      </c>
+      <c r="F139" s="1">
+        <v>0</v>
       </c>
       <c r="G139" t="s">
-        <v>186</v>
+        <v>293</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>189</v>
+        <v>294</v>
       </c>
       <c r="B140">
+        <v>49</v>
+      </c>
+      <c r="C140">
+        <v>143</v>
+      </c>
+      <c r="D140">
+        <v>0</v>
+      </c>
+      <c r="E140">
         <v>47</v>
       </c>
-      <c r="C140">
-        <v>142</v>
-      </c>
-      <c r="D140">
-        <v>1</v>
-      </c>
-      <c r="E140">
-        <v>338</v>
-      </c>
-      <c r="F140" s="1" t="s">
-        <v>471</v>
+      <c r="F140" s="1">
+        <v>0</v>
       </c>
       <c r="G140" t="s">
-        <v>190</v>
+        <v>295</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>265</v>
+        <v>298</v>
       </c>
       <c r="B141">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="C141">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D141">
         <v>0</v>
       </c>
       <c r="E141">
-        <v>301</v>
+        <v>39</v>
       </c>
       <c r="F141" s="1">
         <v>0</v>
       </c>
       <c r="G141" t="s">
-        <v>266</v>
+        <v>299</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>21</v>
+        <v>296</v>
       </c>
       <c r="B142">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C142">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="D142">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="E142">
-        <v>4997</v>
-      </c>
-      <c r="F142" s="1" t="s">
-        <v>402</v>
+        <v>39</v>
+      </c>
+      <c r="F142" s="1">
+        <v>0</v>
       </c>
       <c r="G142" t="s">
-        <v>22</v>
+        <v>297</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>47</v>
+        <v>113</v>
       </c>
       <c r="B143">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C143">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D143">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E143">
-        <v>4643</v>
+        <v>37</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>414</v>
+        <v>445</v>
       </c>
       <c r="G143" t="s">
-        <v>48</v>
+        <v>114</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>75</v>
+        <v>300</v>
       </c>
       <c r="B144">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C144">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="D144">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E144">
-        <v>716</v>
-      </c>
-      <c r="F144" s="1" t="s">
-        <v>427</v>
+        <v>37</v>
+      </c>
+      <c r="F144" s="1">
+        <v>0</v>
       </c>
       <c r="G144" t="s">
-        <v>76</v>
+        <v>301</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>127</v>
+        <v>302</v>
       </c>
       <c r="B145">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C145">
-        <v>129</v>
+        <v>0</v>
       </c>
       <c r="D145">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E145">
-        <v>190</v>
-      </c>
-      <c r="F145" s="1" t="s">
-        <v>451</v>
+        <v>31</v>
+      </c>
+      <c r="F145" s="1">
+        <v>0</v>
       </c>
       <c r="G145" t="s">
-        <v>128</v>
+        <v>303</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>143</v>
+        <v>165</v>
       </c>
       <c r="B146">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="C146">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="D146">
         <v>2</v>
       </c>
       <c r="E146">
-        <v>537</v>
+        <v>29</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="G146" t="s">
-        <v>144</v>
+        <v>166</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>177</v>
+        <v>304</v>
       </c>
       <c r="B147">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="C147">
         <v>0</v>
       </c>
       <c r="D147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E147">
-        <v>788</v>
-      </c>
-      <c r="F147" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="G147" t="s">
-        <v>178</v>
+        <v>28</v>
+      </c>
+      <c r="F147" s="1">
+        <v>0</v>
+      </c>
+      <c r="G147">
+        <v>16</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>229</v>
+        <v>305</v>
       </c>
       <c r="B148">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="C148">
-        <v>0</v>
+        <v>148</v>
       </c>
       <c r="D148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E148">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="F148" s="1">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G148" t="s">
-        <v>230</v>
+        <v>306</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="B149">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C149">
-        <v>199</v>
+        <v>0</v>
       </c>
       <c r="D149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E149">
-        <v>2154</v>
+        <v>25</v>
       </c>
       <c r="F149" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G149" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>257</v>
+        <v>307</v>
       </c>
       <c r="B150">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="C150">
-        <v>152</v>
+        <v>101</v>
       </c>
       <c r="D150">
         <v>0</v>
       </c>
       <c r="E150">
-        <v>350</v>
+        <v>25</v>
       </c>
       <c r="F150" s="1">
         <v>0</v>
       </c>
       <c r="G150" t="s">
-        <v>258</v>
+        <v>308</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>361</v>
+        <v>309</v>
       </c>
       <c r="B151">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C151">
-        <v>122</v>
+        <v>149</v>
       </c>
       <c r="D151">
         <v>0</v>
       </c>
       <c r="E151">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="F151" s="1">
         <v>0</v>
       </c>
       <c r="G151" t="s">
-        <v>362</v>
+        <v>310</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>39</v>
+        <v>311</v>
       </c>
       <c r="B152">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C152">
-        <v>0</v>
+        <v>133</v>
       </c>
       <c r="D152">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="E152">
-        <v>1297</v>
-      </c>
-      <c r="F152" s="1" t="s">
-        <v>411</v>
+        <v>22</v>
+      </c>
+      <c r="F152" s="1">
+        <v>0</v>
       </c>
       <c r="G152" t="s">
-        <v>40</v>
+        <v>312</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>217</v>
+        <v>315</v>
       </c>
       <c r="B153">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C153">
-        <v>134</v>
+        <v>0</v>
       </c>
       <c r="D153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E153">
-        <v>103</v>
-      </c>
-      <c r="F153" s="1" t="s">
-        <v>478</v>
+        <v>21</v>
+      </c>
+      <c r="F153" s="1">
+        <v>0</v>
       </c>
       <c r="G153" t="s">
-        <v>218</v>
+        <v>316</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>33</v>
+        <v>313</v>
       </c>
       <c r="B154">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C154">
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="D154">
+        <v>0</v>
+      </c>
+      <c r="E154">
         <v>21</v>
       </c>
-      <c r="E154">
-        <v>1482</v>
-      </c>
-      <c r="F154" s="1" t="s">
-        <v>408</v>
+      <c r="F154" s="1">
+        <v>0</v>
       </c>
       <c r="G154" t="s">
-        <v>34</v>
+        <v>314</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>63</v>
+        <v>317</v>
       </c>
       <c r="B155">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C155">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D155">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E155">
-        <v>344</v>
-      </c>
-      <c r="F155" s="1" t="s">
-        <v>422</v>
+        <v>20</v>
+      </c>
+      <c r="F155" s="1">
+        <v>0</v>
       </c>
       <c r="G155" t="s">
-        <v>64</v>
+        <v>318</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>121</v>
+        <v>319</v>
       </c>
       <c r="B156">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="C156">
-        <v>134</v>
+        <v>0</v>
       </c>
       <c r="D156">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E156">
-        <v>523</v>
-      </c>
-      <c r="F156" s="1" t="s">
-        <v>448</v>
+        <v>19</v>
+      </c>
+      <c r="F156" s="1">
+        <v>0</v>
       </c>
       <c r="G156" t="s">
-        <v>122</v>
+        <v>320</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>205</v>
+        <v>323</v>
       </c>
       <c r="B157">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="C157">
-        <v>126</v>
+        <v>0</v>
       </c>
       <c r="D157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E157">
-        <v>141</v>
-      </c>
-      <c r="F157" s="1" t="s">
-        <v>432</v>
+        <v>18</v>
+      </c>
+      <c r="F157" s="1">
+        <v>0</v>
       </c>
       <c r="G157" t="s">
-        <v>206</v>
+        <v>324</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>17</v>
+        <v>325</v>
       </c>
       <c r="B158">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="C158">
-        <v>141</v>
+        <v>0</v>
       </c>
       <c r="D158">
-        <v>158</v>
+        <v>0</v>
       </c>
       <c r="E158">
-        <v>9161</v>
-      </c>
-      <c r="F158" s="1" t="s">
-        <v>400</v>
+        <v>18</v>
+      </c>
+      <c r="F158" s="1">
+        <v>0</v>
       </c>
       <c r="G158" t="s">
-        <v>18</v>
+        <v>326</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>27</v>
+        <v>321</v>
       </c>
       <c r="B159">
         <v>43</v>
       </c>
       <c r="C159">
-        <v>153</v>
+        <v>0</v>
       </c>
       <c r="D159">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="E159">
-        <v>3896</v>
-      </c>
-      <c r="F159" s="1" t="s">
-        <v>405</v>
+        <v>18</v>
+      </c>
+      <c r="F159" s="1">
+        <v>0</v>
       </c>
       <c r="G159" t="s">
-        <v>28</v>
+        <v>322</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>35</v>
+        <v>327</v>
       </c>
       <c r="B160">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C160">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="D160">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E160">
-        <v>668</v>
-      </c>
-      <c r="F160" s="1" t="s">
-        <v>409</v>
+        <v>17</v>
+      </c>
+      <c r="F160" s="1">
+        <v>0</v>
       </c>
       <c r="G160" t="s">
-        <v>36</v>
+        <v>328</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>163</v>
+        <v>331</v>
       </c>
       <c r="B161">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="C161">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="D161">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E161">
-        <v>95</v>
-      </c>
-      <c r="F161" s="1" t="s">
-        <v>463</v>
+        <v>16</v>
+      </c>
+      <c r="F161" s="1">
+        <v>0</v>
       </c>
       <c r="G161" t="s">
-        <v>164</v>
+        <v>332</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>183</v>
+        <v>329</v>
       </c>
       <c r="B162">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="C162">
-        <v>133</v>
+        <v>0</v>
       </c>
       <c r="D162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E162">
-        <v>488</v>
-      </c>
-      <c r="F162" s="1" t="s">
-        <v>469</v>
+        <v>16</v>
+      </c>
+      <c r="F162" s="1">
+        <v>0</v>
       </c>
       <c r="G162" t="s">
-        <v>184</v>
+        <v>330</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>193</v>
+        <v>223</v>
       </c>
       <c r="B163">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C163">
-        <v>135</v>
+        <v>0</v>
       </c>
       <c r="D163">
         <v>1</v>
       </c>
       <c r="E163">
-        <v>240</v>
+        <v>13</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="G163" t="s">
-        <v>194</v>
+        <v>224</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>247</v>
+        <v>334</v>
       </c>
       <c r="B164">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="C164">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="D164">
         <v>0</v>
       </c>
       <c r="E164">
-        <v>681</v>
+        <v>13</v>
       </c>
       <c r="F164" s="1">
         <v>0</v>
       </c>
       <c r="G164" t="s">
-        <v>248</v>
+        <v>306</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>249</v>
+        <v>333</v>
       </c>
       <c r="B165">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C165">
-        <v>129</v>
+        <v>151</v>
       </c>
       <c r="D165">
         <v>0</v>
       </c>
       <c r="E165">
-        <v>460</v>
+        <v>13</v>
       </c>
       <c r="F165" s="1">
         <v>0</v>
       </c>
       <c r="G165" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>280</v>
+        <v>335</v>
       </c>
       <c r="B166">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C166">
-        <v>137</v>
+        <v>92</v>
       </c>
       <c r="D166">
         <v>0</v>
       </c>
       <c r="E166">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="F166" s="1">
         <v>0</v>
       </c>
       <c r="G166" t="s">
-        <v>281</v>
+        <v>336</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>321</v>
+        <v>337</v>
       </c>
       <c r="B167">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="C167">
         <v>0</v>
@@ -6157,484 +6157,484 @@
         <v>0</v>
       </c>
       <c r="E167">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F167" s="1">
         <v>0</v>
       </c>
       <c r="G167" t="s">
-        <v>322</v>
+        <v>338</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>67</v>
+        <v>225</v>
       </c>
       <c r="B168">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C168">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="D168">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E168">
-        <v>101</v>
-      </c>
-      <c r="F168" s="1" t="s">
-        <v>424</v>
+        <v>10</v>
+      </c>
+      <c r="F168" s="1">
+        <v>10</v>
       </c>
       <c r="G168" t="s">
-        <v>68</v>
+        <v>226</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>83</v>
+        <v>339</v>
       </c>
       <c r="B169">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="C169">
-        <v>132</v>
+        <v>0</v>
       </c>
       <c r="D169">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E169">
-        <v>2732</v>
-      </c>
-      <c r="F169" s="1" t="s">
-        <v>430</v>
+        <v>10</v>
+      </c>
+      <c r="F169" s="1">
+        <v>0</v>
       </c>
       <c r="G169" t="s">
-        <v>84</v>
+        <v>340</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>169</v>
+        <v>342</v>
       </c>
       <c r="B170">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C170">
         <v>0</v>
       </c>
       <c r="D170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E170">
-        <v>2211</v>
-      </c>
-      <c r="F170" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="G170" t="s">
-        <v>170</v>
+        <v>9</v>
+      </c>
+      <c r="F170" s="1">
+        <v>0</v>
+      </c>
+      <c r="G170">
+        <v>47</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>201</v>
+        <v>341</v>
       </c>
       <c r="B171">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C171">
-        <v>156</v>
+        <v>0</v>
       </c>
       <c r="D171">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E171">
-        <v>165</v>
-      </c>
-      <c r="F171" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="G171" t="s">
-        <v>202</v>
+        <v>9</v>
+      </c>
+      <c r="F171" s="1">
+        <v>0</v>
+      </c>
+      <c r="G171">
+        <v>21</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="B172">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="C172">
         <v>0</v>
       </c>
       <c r="D172">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E172">
-        <v>956</v>
-      </c>
-      <c r="F172" s="1">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="F172" s="1" t="s">
+        <v>362</v>
       </c>
       <c r="G172" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>282</v>
+        <v>347</v>
       </c>
       <c r="B173">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="C173">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="D173">
         <v>0</v>
       </c>
       <c r="E173">
-        <v>79</v>
+        <v>8</v>
       </c>
       <c r="F173" s="1">
         <v>0</v>
       </c>
       <c r="G173" t="s">
-        <v>283</v>
+        <v>348</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>131</v>
+        <v>343</v>
       </c>
       <c r="B174">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="C174">
-        <v>126</v>
+        <v>155</v>
       </c>
       <c r="D174">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E174">
-        <v>1670</v>
-      </c>
-      <c r="F174" s="1" t="s">
-        <v>453</v>
+        <v>8</v>
+      </c>
+      <c r="F174" s="1">
+        <v>0</v>
       </c>
       <c r="G174" t="s">
-        <v>132</v>
+        <v>344</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>209</v>
+        <v>345</v>
       </c>
       <c r="B175">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C175">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E175">
-        <v>133</v>
-      </c>
-      <c r="F175" s="1" t="s">
-        <v>457</v>
+        <v>8</v>
+      </c>
+      <c r="F175" s="1">
+        <v>0</v>
       </c>
       <c r="G175" t="s">
-        <v>210</v>
+        <v>346</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>15</v>
+        <v>351</v>
       </c>
       <c r="B176">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="C176">
-        <v>143</v>
+        <v>0</v>
       </c>
       <c r="D176">
-        <v>178</v>
+        <v>0</v>
       </c>
       <c r="E176">
-        <v>6117</v>
-      </c>
-      <c r="F176" s="1" t="s">
-        <v>399</v>
+        <v>7</v>
+      </c>
+      <c r="F176" s="1">
+        <v>0</v>
       </c>
       <c r="G176" t="s">
-        <v>16</v>
+        <v>352</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>95</v>
+        <v>349</v>
       </c>
       <c r="B177">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C177">
         <v>0</v>
       </c>
       <c r="D177">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E177">
-        <v>1244</v>
-      </c>
-      <c r="F177" s="1" t="s">
-        <v>436</v>
+        <v>7</v>
+      </c>
+      <c r="F177" s="1">
+        <v>0</v>
       </c>
       <c r="G177" t="s">
-        <v>96</v>
+        <v>350</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>107</v>
+        <v>353</v>
       </c>
       <c r="B178">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="C178">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="D178">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E178">
-        <v>495</v>
-      </c>
-      <c r="F178" s="1" t="s">
-        <v>442</v>
+        <v>6</v>
+      </c>
+      <c r="F178" s="1">
+        <v>0</v>
       </c>
       <c r="G178" t="s">
-        <v>108</v>
+        <v>354</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>173</v>
+        <v>355</v>
       </c>
       <c r="B179">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C179">
-        <v>0</v>
+        <v>199</v>
       </c>
       <c r="D179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E179">
-        <v>1034</v>
-      </c>
-      <c r="F179" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="G179" t="s">
-        <v>174</v>
+        <v>6</v>
+      </c>
+      <c r="F179" s="1">
+        <v>0</v>
+      </c>
+      <c r="G179">
+        <v>37</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>221</v>
+        <v>359</v>
       </c>
       <c r="B180">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="C180">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="D180">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E180">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="F180" s="1">
-        <v>4</v>
-      </c>
-      <c r="G180" t="s">
-        <v>222</v>
+        <v>0</v>
+      </c>
+      <c r="G180">
+        <v>46</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>290</v>
+        <v>356</v>
       </c>
       <c r="B181">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C181">
-        <v>141</v>
+        <v>0</v>
       </c>
       <c r="D181">
         <v>0</v>
       </c>
       <c r="E181">
-        <v>56</v>
+        <v>5</v>
       </c>
       <c r="F181" s="1">
         <v>0</v>
       </c>
-      <c r="G181" t="s">
-        <v>291</v>
+      <c r="G181">
+        <v>30</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>309</v>
+        <v>357</v>
       </c>
       <c r="B182">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C182">
-        <v>149</v>
+        <v>0</v>
       </c>
       <c r="D182">
         <v>0</v>
       </c>
       <c r="E182">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="F182" s="1">
         <v>0</v>
       </c>
       <c r="G182" t="s">
-        <v>310</v>
+        <v>358</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>342</v>
+        <v>229</v>
       </c>
       <c r="B183">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C183">
         <v>0</v>
       </c>
       <c r="D183">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E183">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F183" s="1">
-        <v>0</v>
-      </c>
-      <c r="G183">
-        <v>47</v>
+        <v>25</v>
+      </c>
+      <c r="G183" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>69</v>
+        <v>363</v>
       </c>
       <c r="B184">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="C184">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="D184">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E184">
-        <v>1453</v>
-      </c>
-      <c r="F184" s="1" t="s">
-        <v>425</v>
+        <v>4</v>
+      </c>
+      <c r="F184" s="1">
+        <v>0</v>
       </c>
       <c r="G184" t="s">
-        <v>70</v>
+        <v>364</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>197</v>
+        <v>365</v>
       </c>
       <c r="B185">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="C185">
-        <v>129</v>
+        <v>0</v>
       </c>
       <c r="D185">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E185">
-        <v>198</v>
-      </c>
-      <c r="F185" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="G185" t="s">
-        <v>198</v>
+        <v>4</v>
+      </c>
+      <c r="F185" s="1">
+        <v>0</v>
+      </c>
+      <c r="G185">
+        <v>27</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
+        <v>366</v>
+      </c>
+      <c r="B186">
+        <v>60</v>
+      </c>
+      <c r="C186">
         <v>199</v>
       </c>
-      <c r="B186">
-        <v>39</v>
-      </c>
-      <c r="C186">
-        <v>132</v>
-      </c>
       <c r="D186">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E186">
-        <v>169</v>
-      </c>
-      <c r="F186" s="1" t="s">
-        <v>474</v>
+        <v>4</v>
+      </c>
+      <c r="F186" s="1">
+        <v>0</v>
       </c>
       <c r="G186" t="s">
-        <v>200</v>
+        <v>367</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>203</v>
+        <v>368</v>
       </c>
       <c r="B187">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="C187">
-        <v>145</v>
+        <v>101</v>
       </c>
       <c r="D187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E187">
-        <v>145</v>
-      </c>
-      <c r="F187" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="G187" t="s">
-        <v>204</v>
+        <v>4</v>
+      </c>
+      <c r="F187" s="1">
+        <v>0</v>
+      </c>
+      <c r="G187">
+        <v>75</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B188">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C188">
-        <v>150</v>
+        <v>122</v>
       </c>
       <c r="D188">
         <v>0</v>
@@ -6645,272 +6645,272 @@
       <c r="F188" s="1">
         <v>0</v>
       </c>
-      <c r="G188">
-        <v>7</v>
+      <c r="G188" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>19</v>
+        <v>360</v>
       </c>
       <c r="B189">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C189">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="D189">
-        <v>148</v>
+        <v>0</v>
       </c>
       <c r="E189">
-        <v>6150</v>
-      </c>
-      <c r="F189" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="G189" t="s">
-        <v>20</v>
+        <v>4</v>
+      </c>
+      <c r="F189" s="1">
+        <v>0</v>
+      </c>
+      <c r="G189">
+        <v>7</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>243</v>
+        <v>371</v>
       </c>
       <c r="B190">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="C190">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="D190">
         <v>0</v>
       </c>
       <c r="E190">
-        <v>792</v>
+        <v>2</v>
       </c>
       <c r="F190" s="1">
         <v>0</v>
       </c>
-      <c r="G190" t="s">
-        <v>244</v>
+      <c r="G190">
+        <v>7</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>341</v>
+        <v>374</v>
       </c>
       <c r="B191">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="C191">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="D191">
         <v>0</v>
       </c>
       <c r="E191">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F191" s="1">
         <v>0</v>
       </c>
-      <c r="G191">
-        <v>21</v>
+      <c r="G191" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>53</v>
+        <v>370</v>
       </c>
       <c r="B192">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="C192">
-        <v>132</v>
+        <v>199</v>
       </c>
       <c r="D192">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E192">
-        <v>677</v>
-      </c>
-      <c r="F192" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="G192" t="s">
-        <v>54</v>
+        <v>2</v>
+      </c>
+      <c r="F192" s="1">
+        <v>0</v>
+      </c>
+      <c r="G192">
+        <v>7</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>171</v>
+        <v>369</v>
       </c>
       <c r="B193">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="C193">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="D193">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E193">
-        <v>2183</v>
-      </c>
-      <c r="F193" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="G193" t="s">
-        <v>172</v>
+        <v>2</v>
+      </c>
+      <c r="F193" s="1">
+        <v>0</v>
+      </c>
+      <c r="G193">
+        <v>3</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>276</v>
+        <v>372</v>
       </c>
       <c r="B194">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="C194">
-        <v>147</v>
+        <v>105</v>
       </c>
       <c r="D194">
         <v>0</v>
       </c>
       <c r="E194">
-        <v>118</v>
+        <v>2</v>
       </c>
       <c r="F194" s="1">
         <v>0</v>
       </c>
       <c r="G194" t="s">
-        <v>277</v>
+        <v>373</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>13</v>
+        <v>378</v>
       </c>
       <c r="B195">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="C195">
-        <v>136</v>
+        <v>92</v>
       </c>
       <c r="D195">
-        <v>216</v>
+        <v>0</v>
       </c>
       <c r="E195">
-        <v>9293</v>
-      </c>
-      <c r="F195" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="G195" t="s">
-        <v>14</v>
+        <v>1</v>
+      </c>
+      <c r="F195" s="1">
+        <v>0</v>
+      </c>
+      <c r="G195">
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>239</v>
+        <v>375</v>
       </c>
       <c r="B196">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="C196">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D196">
         <v>0</v>
       </c>
       <c r="E196">
-        <v>939</v>
+        <v>1</v>
       </c>
       <c r="F196" s="1">
         <v>0</v>
       </c>
-      <c r="G196" t="s">
-        <v>240</v>
+      <c r="G196">
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>313</v>
+        <v>386</v>
       </c>
       <c r="B197">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="C197">
-        <v>156</v>
+        <v>0</v>
       </c>
       <c r="D197">
         <v>0</v>
       </c>
       <c r="E197">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="F197" s="1">
         <v>0</v>
       </c>
-      <c r="G197" t="s">
-        <v>314</v>
+      <c r="G197">
+        <v>8</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>167</v>
+        <v>385</v>
       </c>
       <c r="B198">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="C198">
         <v>0</v>
       </c>
       <c r="D198">
+        <v>0</v>
+      </c>
+      <c r="E198">
         <v>1</v>
       </c>
-      <c r="E198">
-        <v>3779</v>
-      </c>
-      <c r="F198" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="G198" t="s">
-        <v>168</v>
+      <c r="F198" s="1">
+        <v>0</v>
+      </c>
+      <c r="G198">
+        <v>8</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>255</v>
+        <v>391</v>
       </c>
       <c r="B199">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="C199">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="D199">
         <v>0</v>
       </c>
       <c r="E199">
-        <v>415</v>
+        <v>1</v>
       </c>
       <c r="F199" s="1">
         <v>0</v>
       </c>
-      <c r="G199" t="s">
-        <v>256</v>
+      <c r="G199">
+        <v>132</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="B200">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="C200">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="D200">
         <v>0</v>
@@ -6922,61 +6922,61 @@
         <v>0</v>
       </c>
       <c r="G200">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>89</v>
+        <v>380</v>
       </c>
       <c r="B201">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="C201">
-        <v>133</v>
+        <v>0</v>
       </c>
       <c r="D201">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E201">
-        <v>378</v>
-      </c>
-      <c r="F201" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="G201" t="s">
-        <v>90</v>
+        <v>1</v>
+      </c>
+      <c r="F201" s="1">
+        <v>0</v>
+      </c>
+      <c r="G201">
+        <v>3</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>327</v>
+        <v>387</v>
       </c>
       <c r="B202">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="C202">
-        <v>0</v>
+        <v>199</v>
       </c>
       <c r="D202">
         <v>0</v>
       </c>
       <c r="E202">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="F202" s="1">
         <v>0</v>
       </c>
-      <c r="G202" t="s">
-        <v>328</v>
+      <c r="G202">
+        <v>9</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B203">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="C203">
         <v>0</v>
@@ -6991,84 +6991,84 @@
         <v>0</v>
       </c>
       <c r="G203">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>225</v>
+        <v>381</v>
       </c>
       <c r="B204">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="C204">
-        <v>154</v>
+        <v>101</v>
       </c>
       <c r="D204">
+        <v>0</v>
+      </c>
+      <c r="E204">
         <v>1</v>
       </c>
-      <c r="E204">
-        <v>10</v>
-      </c>
       <c r="F204" s="1">
-        <v>10</v>
-      </c>
-      <c r="G204" t="s">
-        <v>226</v>
+        <v>0</v>
+      </c>
+      <c r="G204">
+        <v>3</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>304</v>
+        <v>390</v>
       </c>
       <c r="B205">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="C205">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="D205">
         <v>0</v>
       </c>
       <c r="E205">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="F205" s="1">
         <v>0</v>
       </c>
       <c r="G205">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>345</v>
+        <v>376</v>
       </c>
       <c r="B206">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="C206">
-        <v>129</v>
+        <v>0</v>
       </c>
       <c r="D206">
         <v>0</v>
       </c>
       <c r="E206">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F206" s="1">
         <v>0</v>
       </c>
-      <c r="G206" t="s">
-        <v>346</v>
+      <c r="G206">
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>349</v>
+        <v>377</v>
       </c>
       <c r="B207">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="C207">
         <v>0</v>
@@ -7077,21 +7077,21 @@
         <v>0</v>
       </c>
       <c r="E207">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F207" s="1">
         <v>0</v>
       </c>
-      <c r="G207" t="s">
-        <v>350</v>
+      <c r="G207">
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>356</v>
+        <v>383</v>
       </c>
       <c r="B208">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="C208">
         <v>0</v>
@@ -7100,67 +7100,67 @@
         <v>0</v>
       </c>
       <c r="E208">
+        <v>1</v>
+      </c>
+      <c r="F208" s="1">
+        <v>0</v>
+      </c>
+      <c r="G208">
         <v>5</v>
-      </c>
-      <c r="F208" s="1">
-        <v>0</v>
-      </c>
-      <c r="G208">
-        <v>30</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>223</v>
+        <v>389</v>
       </c>
       <c r="B209">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="C209">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="D209">
+        <v>0</v>
+      </c>
+      <c r="E209">
         <v>1</v>
       </c>
-      <c r="E209">
-        <v>13</v>
-      </c>
-      <c r="F209" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="G209" t="s">
-        <v>224</v>
+      <c r="F209" s="1">
+        <v>0</v>
+      </c>
+      <c r="G209">
+        <v>12</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>357</v>
+        <v>388</v>
       </c>
       <c r="B210">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C210">
-        <v>0</v>
+        <v>142</v>
       </c>
       <c r="D210">
         <v>0</v>
       </c>
       <c r="E210">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F210" s="1">
         <v>0</v>
       </c>
-      <c r="G210" t="s">
-        <v>358</v>
+      <c r="G210">
+        <v>9</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>235</v>
+        <v>384</v>
       </c>
       <c r="B211">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C211">
         <v>0</v>
@@ -7169,13 +7169,13 @@
         <v>0</v>
       </c>
       <c r="E211">
-        <v>1135</v>
+        <v>1</v>
       </c>
       <c r="F211" s="1">
         <v>0</v>
       </c>
-      <c r="G211" t="s">
-        <v>236</v>
+      <c r="G211">
+        <v>6</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.2">
@@ -7209,7 +7209,11 @@
       <c r="F221"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G1"/>
+  <autoFilter ref="A1:G1" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState ref="A2:G211">
+      <sortCondition descending="1" ref="E1:E211"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>